--- a/medicine/Pharmacie/Classe_ATC_V10/Classe_ATC_V10.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_V10/Classe_ATC_V10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V10, dénommée « Agents radiopharmaceutiques à usage thérapeutique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV10[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V10, dénommée « Agents radiopharmaceutiques à usage thérapeutique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV10. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
 </t>
         </is>
       </c>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V10AA Dérivés de 90Y-Yttrium
-V10AA01 90Y-Yttrium colloïde de citrate
+          <t>V10AA Dérivés de 90Y-Yttrium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>V10AA01 90Y-Yttrium colloïde de citrate
 V10AA02 90Y-Yttrium colloïde de ferrihydroxyde
-V10AA03 90Y-Yttrium colloïde de silicate
-V10AX Autres produits radiopharmaceutiques anti-inflammatoires
-V10AX01 32P-Phosphoreux colloïde de phosphate chromique
+V10AA03 90Y-Yttrium colloïde de silicate</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V10A Produits anti-inflammatoires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V10AX Autres produits radiopharmaceutiques anti-inflammatoires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>V10AX01 32P-Phosphoreux colloïde de phosphate chromique
 V10AX02 153Sm-Samarium colloïde d'hydroxyapatite
 V10AX03 165Dy-Dysprosium colloïde
 V10AX04 169Er-Erbium colloïde de citrate
@@ -527,39 +578,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>V10B Palliation de la douleur</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>V10BX Divers produits radiopharmaceutiques pour la palliation de la douleur
-V10BX01 89Sr-Strontium chlorure
-V10BX02 153Sm-Samarium lexidronam
-V10BX03 186Re-Rhenium étidronique acide</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -581,17 +599,94 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>V10B Palliation de la douleur</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V10BX Divers produits radiopharmaceutiques pour la palliation de la douleur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>V10BX01 89Sr-Strontium chlorure
+V10BX02 153Sm-Samarium lexidronam
+V10BX03 186Re-Rhenium étidronique acide</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>V10X Autres produits radiopharmaceutiques à usage thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>V10XA Dérivés de l'131I-Iode
-V10XA01 131I-Iode sodium iodure
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V10XA Dérivés de l'131I-Iode</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>V10XA01 131I-Iode sodium iodure
 V10XA02 131I-Iode iobenguane
-V10XA53 131I-Tositumomab iodé
-V10XX Divers produits radiopharmaceutiques à usage thérapeutique
-V10XX01 32P-Phosphate sodique
+V10XA53 131I-Tositumomab iodé</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V10X Autres produits radiopharmaceutiques à usage thérapeutique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V10XX Divers produits radiopharmaceutiques à usage thérapeutique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>V10XX01 32P-Phosphate sodique
 V10XX02 90Y-Ibritumomab tiuxétan
 V10XX03 Radium (223Ra) dichlorure
 V10XX04 Lutécium (177Lu) oxodotréotide</t>
